--- a/biology/Médecine/Salix_bicolor/Salix_bicolor.xlsx
+++ b/biology/Médecine/Salix_bicolor/Salix_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix bicolor, le saule à deux couleurs, est une espèce de saule de montagne, de la famille des Salicaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix schraderiana Willd.
 Salix weigeliana Willd.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix bicolor peut atteindre 30 à 50 cm de haut. La plante prend la forme d'un large buisson mais peut aussi ressembler à un arbre multi-branches de 4 mètres de haut. Les branches sont glabres, brun-rouge ou de couleur noisette. 
 Les feuilles sont vert-jaune, glabres, elliptiques ou lancéolées, à l'apex pointu, sombres sur le dessus, blanches dessous. Elles font 5 à 8 cm de long et de 2 à 3 cm de large. 
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est présente dans les montagnes d'Europe du Sud.
 </t>
@@ -607,7 +625,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante se trouve près des cours d'eau, dans les prairies subalpines, entre 1 650  et   2 350 m d'altitude.
 </t>
